--- a/Vera/迈康尼12月生日名单.xlsx
+++ b/Vera/迈康尼12月生日名单.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattz\Documents\WorkSpace\Vera\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E65E22-5FC2-4EF3-B0C2-099B6561292B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="750" yWindow="600" windowWidth="19095" windowHeight="6975"/>
+    <workbookView showHorizontalScroll="0" showVerticalScroll="0" showSheetTabs="0" xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="15196" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -44,12 +50,13 @@
   </si>
   <si>
     <t>1987/12/09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -129,6 +136,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -418,19 +433,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="13.17578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" ht="15.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
